--- a/GI_Calcs_Final.xlsx
+++ b/GI_Calcs_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhoneyma/Library/Mobile Documents/com~apple~CloudDocs/Documents/UBC/Yr2/CHEM211/LAB211/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{087A6229-2B96-EC40-A52A-026A1238EAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D3CBC2-E5C0-DC4B-A68B-F6A3DF3B3A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="2180" windowWidth="25800" windowHeight="15940" activeTab="1" xr2:uid="{39160339-4E40-2444-9919-E9F3CE4EDF7A}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
   <si>
     <t>Kinetics</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>Conc (mM)</t>
+  </si>
+  <si>
+    <t>Rate Std Dev</t>
   </si>
 </sst>
 </file>
@@ -8349,7 +8352,7 @@
   <dimension ref="B2:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8360,6 +8363,7 @@
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="39.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
@@ -8397,7 +8401,9 @@
       <c r="J5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -8430,6 +8436,10 @@
       <c r="J6" s="7">
         <f>10^C29</f>
         <v>192.10903165031291</v>
+      </c>
+      <c r="K6">
+        <f>J6*LN(10)*D29</f>
+        <v>87.318394942066206</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
@@ -8853,7 +8863,7 @@
         <v>2.2835477828923536</v>
       </c>
       <c r="D29" s="8">
-        <v>0.19739778378049216</v>
+        <v>0.197397783780492</v>
       </c>
       <c r="E29" s="8">
         <v>11.568254410757094</v>
